--- a/raw_data/20200818_saline/20200818_Sensor1_Test_2.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_2.xlsx
@@ -1,765 +1,1181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87167940-4603-43D8-ABC2-2D3B50064AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>1087.642938</v>
       </c>
       <c r="B2" s="1">
-        <v>0.302123</v>
+        <v>0.30212299999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>895.302000</v>
+        <v>895.30200000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-203.829000</v>
+        <v>-203.82900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1098.054360</v>
+        <v>1098.0543600000001</v>
       </c>
       <c r="G2" s="1">
-        <v>0.305015</v>
+        <v>0.30501499999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>913.958000</v>
+        <v>913.95799999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-172.464000</v>
+        <v>-172.464</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>1108.512111</v>
       </c>
       <c r="L2" s="1">
-        <v>0.307920</v>
+        <v>0.30792000000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>937.956000</v>
+        <v>937.95600000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.016000</v>
+        <v>-122.01600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>1119.026834</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.310841</v>
+        <v>0.31084099999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>944.737000</v>
+        <v>944.73699999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.070000</v>
+        <v>-105.07</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>1129.910547</v>
       </c>
       <c r="V2" s="1">
-        <v>0.313864</v>
+        <v>0.31386399999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>951.499000</v>
+        <v>951.49900000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.310000</v>
+        <v>-89.31</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1140.106778</v>
+        <v>1140.1067780000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.316696</v>
+        <v>0.31669599999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.602000</v>
+        <v>958.60199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.123100</v>
+        <v>-77.123099999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>1150.370983</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.319547</v>
+        <v>0.31954700000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.266000</v>
+        <v>963.26599999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.453400</v>
+        <v>-74.453400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1160.477962</v>
+        <v>1160.4779619999999</v>
       </c>
       <c r="AK2" s="1">
         <v>0.322355</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.425000</v>
+        <v>970.42499999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.584600</v>
+        <v>-78.584599999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>1171.072012</v>
+        <v>1171.0720120000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.325298</v>
+        <v>0.32529799999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.418000</v>
+        <v>978.41800000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-89.503300</v>
+        <v>-89.503299999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>1181.728062</v>
+        <v>1181.7280619999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.328258</v>
+        <v>0.32825799999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.105000</v>
+        <v>988.10500000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-106.413000</v>
+        <v>-106.413</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>1192.844432</v>
+        <v>1192.8444320000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.331346</v>
+        <v>0.33134599999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.183000</v>
+        <v>996.18299999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-121.462000</v>
+        <v>-121.462</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>1203.834257</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.334398</v>
+        <v>0.33439799999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1033.420000</v>
+        <v>1033.42</v>
       </c>
       <c r="BG2" s="1">
-        <v>-191.012000</v>
+        <v>-191.012</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1214.852387</v>
+        <v>1214.8523869999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.337459</v>
+        <v>0.33745900000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1097.070000</v>
+        <v>1097.07</v>
       </c>
       <c r="BL2" s="1">
-        <v>-304.944000</v>
+        <v>-304.94400000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>1225.614581</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.340448</v>
+        <v>0.34044799999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-486.462000</v>
+        <v>-486.46199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>1235.971084</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.343325</v>
+        <v>0.34332499999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1318.550000</v>
+        <v>1318.55</v>
       </c>
       <c r="BV2" s="1">
-        <v>-686.879000</v>
+        <v>-686.87900000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>1247.108745</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.346419</v>
+        <v>0.34641899999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1450.910000</v>
+        <v>1450.91</v>
       </c>
       <c r="CA2" s="1">
-        <v>-901.484000</v>
+        <v>-901.48400000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>1258.302426</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.349528</v>
+        <v>0.34952800000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1801.940000</v>
+        <v>1801.94</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1411.280000</v>
+        <v>-1411.28</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>1088.033787</v>
+        <v>1088.0337870000001</v>
       </c>
       <c r="B3" s="1">
         <v>0.302232</v>
       </c>
       <c r="C3" s="1">
-        <v>895.207000</v>
+        <v>895.20699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-203.925000</v>
+        <v>-203.92500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1098.423484</v>
+        <v>1098.4234839999999</v>
       </c>
       <c r="G3" s="1">
         <v>0.305118</v>
       </c>
       <c r="H3" s="1">
-        <v>913.809000</v>
+        <v>913.80899999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-172.300000</v>
+        <v>-172.3</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>1109.203534</v>
@@ -768,889 +1184,889 @@
         <v>0.308112</v>
       </c>
       <c r="M3" s="1">
-        <v>937.870000</v>
+        <v>937.87</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.964000</v>
+        <v>-121.964</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>1119.722728</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.311034</v>
+        <v>0.31103399999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>944.789000</v>
+        <v>944.78899999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.963000</v>
+        <v>-104.96299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>1130.320706</v>
       </c>
       <c r="V3" s="1">
-        <v>0.313978</v>
+        <v>0.31397799999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>951.510000</v>
+        <v>951.51</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.396900</v>
+        <v>-89.396900000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>1140.465418</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.316796</v>
+        <v>0.31679600000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.653000</v>
+        <v>958.65300000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.050800</v>
+        <v>-77.050799999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1150.710743</v>
+        <v>1150.7107430000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.319642</v>
+        <v>0.31964199999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.284000</v>
+        <v>963.28399999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.453600</v>
+        <v>-74.453599999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>1160.862361</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.322462</v>
+        <v>0.32246200000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.405000</v>
+        <v>970.40499999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.566800</v>
+        <v>-78.566800000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>1171.477243</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.325410</v>
+        <v>0.32540999999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.425000</v>
+        <v>978.42499999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-89.501900</v>
+        <v>-89.501900000000006</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>1182.144238</v>
+        <v>1182.1442380000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.328373</v>
+        <v>0.32837300000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.129000</v>
+        <v>988.12900000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-106.402000</v>
+        <v>-106.402</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>1193.281374</v>
+        <v>1193.2813739999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.331467</v>
+        <v>0.33146700000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.157000</v>
+        <v>996.15700000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-121.461000</v>
+        <v>-121.461</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>1204.227088</v>
+        <v>1204.2270880000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.334508</v>
+        <v>0.33450800000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1033.430000</v>
+        <v>1033.43</v>
       </c>
       <c r="BG3" s="1">
-        <v>-191.006000</v>
+        <v>-191.006</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>1215.234802</v>
+        <v>1215.2348019999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>0.337565</v>
       </c>
       <c r="BK3" s="1">
-        <v>1097.080000</v>
+        <v>1097.08</v>
       </c>
       <c r="BL3" s="1">
-        <v>-304.977000</v>
+        <v>-304.97699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1226.051060</v>
+        <v>1226.05106</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.340570</v>
+        <v>0.34056999999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1200.700000</v>
+        <v>1200.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-486.452000</v>
+        <v>-486.452</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>1236.735418</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.343538</v>
+        <v>0.34353800000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.045000</v>
+        <v>-687.04499999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>1247.571975</v>
+        <v>1247.5719750000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.346548</v>
+        <v>0.34654800000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="CA3" s="1">
-        <v>-901.532000</v>
+        <v>-901.53200000000004</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1258.863927</v>
+        <v>1258.8639270000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.349684</v>
+        <v>0.34968399999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1802.330000</v>
+        <v>1802.33</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1412.640000</v>
+        <v>-1412.64</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>1088.695946</v>
       </c>
       <c r="B4" s="1">
-        <v>0.302416</v>
+        <v>0.30241600000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>895.409000</v>
+        <v>895.40899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.784000</v>
+        <v>-203.78399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1099.071260</v>
+        <v>1099.0712599999999</v>
       </c>
       <c r="G4" s="1">
-        <v>0.305298</v>
+        <v>0.30529800000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>913.807000</v>
+        <v>913.80700000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-172.362000</v>
+        <v>-172.36199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1109.584461</v>
+        <v>1109.5844609999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.308218</v>
+        <v>0.30821799999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>937.827000</v>
+        <v>937.827</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.960000</v>
+        <v>-121.96</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1120.205800</v>
+        <v>1120.2058</v>
       </c>
       <c r="Q4" s="1">
         <v>0.311168</v>
       </c>
       <c r="R4" s="1">
-        <v>944.788000</v>
+        <v>944.78800000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.969000</v>
+        <v>-104.96899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>1130.665921</v>
       </c>
       <c r="V4" s="1">
-        <v>0.314074</v>
+        <v>0.31407400000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>951.457000</v>
+        <v>951.45699999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.352200</v>
+        <v>-89.352199999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>1140.812582</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.316892</v>
+        <v>0.31689200000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.715000</v>
+        <v>958.71500000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.137700</v>
+        <v>-77.137699999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1151.055469</v>
+        <v>1151.0554689999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.319738</v>
+        <v>0.31973800000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.280000</v>
+        <v>963.28</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.477000</v>
+        <v>-74.477000000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1161.284953</v>
+        <v>1161.2849530000001</v>
       </c>
       <c r="AK4" s="1">
         <v>0.322579</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.427000</v>
+        <v>970.42700000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.592200</v>
+        <v>-78.592200000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>1171.820971</v>
+        <v>1171.8209710000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.325506</v>
+        <v>0.32550600000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.424000</v>
+        <v>978.42399999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-89.478600</v>
+        <v>-89.4786</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>1182.498845</v>
+        <v>1182.4988450000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.328472</v>
+        <v>0.32847199999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.117000</v>
+        <v>988.11699999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-106.419000</v>
+        <v>-106.419</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1193.637998</v>
+        <v>1193.6379979999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.331566</v>
+        <v>0.33156600000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.189000</v>
+        <v>996.18899999999996</v>
       </c>
       <c r="BB4" s="1">
-        <v>-121.459000</v>
+        <v>-121.459</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>1204.586688</v>
+        <v>1204.5866880000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.334607</v>
+        <v>0.33460699999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1033.420000</v>
+        <v>1033.42</v>
       </c>
       <c r="BG4" s="1">
-        <v>-191.021000</v>
+        <v>-191.02099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1215.612258</v>
+        <v>1215.6122580000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.337670</v>
+        <v>0.33767000000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-304.953000</v>
+        <v>-304.95299999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1226.468692</v>
+        <v>1226.4686919999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.340686</v>
+        <v>0.34068599999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-486.453000</v>
+        <v>-486.45299999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1237.255188</v>
+        <v>1237.2551880000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.343682</v>
+        <v>0.34368199999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1318.510000</v>
+        <v>1318.51</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.165000</v>
+        <v>-687.16499999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1248.021846</v>
+        <v>1248.0218460000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.346673</v>
+        <v>0.34667300000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1451.030000</v>
+        <v>1451.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-901.412000</v>
+        <v>-901.41200000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>1259.381719</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.349828</v>
+        <v>0.34982799999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>1803.510000</v>
+        <v>1803.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1412.190000</v>
+        <v>-1412.19</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>1089.056570</v>
+        <v>1089.05657</v>
       </c>
       <c r="B5" s="1">
-        <v>0.302516</v>
+        <v>0.30251600000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>895.310000</v>
+        <v>895.31</v>
       </c>
       <c r="D5" s="1">
-        <v>-203.779000</v>
+        <v>-203.779</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1099.458138</v>
       </c>
       <c r="G5" s="1">
-        <v>0.305405</v>
+        <v>0.30540499999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>913.871000</v>
+        <v>913.87099999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-172.449000</v>
+        <v>-172.44900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1109.929677</v>
+        <v>1109.9296770000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.308314</v>
+        <v>0.30831399999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>937.810000</v>
+        <v>937.81</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.873000</v>
+        <v>-121.873</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1120.459743</v>
+        <v>1120.4597429999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.311239</v>
+        <v>0.31123899999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>944.781000</v>
+        <v>944.78099999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.969000</v>
+        <v>-104.96899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1131.008690</v>
+        <v>1131.0086899999999</v>
       </c>
       <c r="V5" s="1">
-        <v>0.314169</v>
+        <v>0.31416899999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>951.496000</v>
+        <v>951.49599999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.322400</v>
+        <v>-89.322400000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>1141.232696</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.317009</v>
+        <v>0.31700899999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.612000</v>
+        <v>958.61199999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.118300</v>
+        <v>-77.118300000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1151.471607</v>
+        <v>1151.4716069999999</v>
       </c>
       <c r="AF5" s="1">
         <v>0.319853</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.268000</v>
+        <v>963.26800000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.476200</v>
+        <v>-74.476200000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1161.580104</v>
+        <v>1161.5801039999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.322661</v>
+        <v>0.32266099999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.410000</v>
+        <v>970.41</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.576500</v>
+        <v>-78.576499999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>1172.181067</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.325606</v>
+        <v>0.32560600000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.418000</v>
+        <v>978.41800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-89.489000</v>
+        <v>-89.489000000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>1182.863405</v>
+        <v>1182.8634050000001</v>
       </c>
       <c r="AU5" s="1">
         <v>0.328573</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.127000</v>
+        <v>988.12699999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-106.404000</v>
+        <v>-106.404</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>1193.993134</v>
+        <v>1193.9931340000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.331665</v>
+        <v>0.33166499999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.181000</v>
+        <v>996.18100000000004</v>
       </c>
       <c r="BB5" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1205.310360</v>
+        <v>1205.3103599999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.334808</v>
+        <v>0.33480799999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-191.032000</v>
+        <v>-191.03200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>1216.388000</v>
+        <v>1216.3879999999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.337886</v>
+        <v>0.33788600000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1097.080000</v>
+        <v>1097.08</v>
       </c>
       <c r="BL5" s="1">
-        <v>-304.951000</v>
+        <v>-304.95100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1226.866482</v>
+        <v>1226.8664819999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.340796</v>
+        <v>0.34079599999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-486.443000</v>
+        <v>-486.44299999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>1237.687700</v>
+        <v>1237.6876999999999</v>
       </c>
       <c r="BT5" s="1">
         <v>0.343802</v>
       </c>
       <c r="BU5" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.195000</v>
+        <v>-687.19500000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>1248.450886</v>
+        <v>1248.4508860000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.346792</v>
+        <v>0.34679199999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1450.990000</v>
+        <v>1450.99</v>
       </c>
       <c r="CA5" s="1">
-        <v>-901.406000</v>
+        <v>-901.40599999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>1260.202102</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.350056</v>
+        <v>0.35005599999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1803.040000</v>
+        <v>1803.04</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1410.870000</v>
+        <v>-1410.87</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>1089.398776</v>
       </c>
       <c r="B6" s="1">
-        <v>0.302611</v>
+        <v>0.30261100000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>895.374000</v>
+        <v>895.37400000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-203.822000</v>
+        <v>-203.822</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1099.800378</v>
+        <v>1099.8003779999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.305500</v>
+        <v>0.30549999999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>913.966000</v>
+        <v>913.96600000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-172.547000</v>
+        <v>-172.547</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1110.274894</v>
+        <v>1110.2748939999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.308410</v>
+        <v>0.30841000000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>937.811000</v>
+        <v>937.81100000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.073000</v>
+        <v>-122.07299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1120.940896</v>
+        <v>1120.9408960000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.311372</v>
+        <v>0.31137199999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>944.772000</v>
+        <v>944.77200000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.916000</v>
+        <v>-104.916</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1131.421825</v>
+        <v>1131.4218249999999</v>
       </c>
       <c r="V6" s="1">
-        <v>0.314284</v>
+        <v>0.31428400000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>951.530000</v>
+        <v>951.53</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.371100</v>
+        <v>-89.371099999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>1141.508963</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.317086</v>
+        <v>0.31708599999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.617000</v>
+        <v>958.61699999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.135700</v>
+        <v>-77.1357</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1151.767718</v>
+        <v>1151.7677180000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.319935</v>
+        <v>0.31993500000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.274000</v>
+        <v>963.274</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.493100</v>
+        <v>-74.493099999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1161.930248</v>
+        <v>1161.9302479999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.322758</v>
+        <v>0.32275799999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.431000</v>
+        <v>970.43100000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.535400</v>
+        <v>-78.535399999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>1172.544668</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.325707</v>
+        <v>0.32570700000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.431000</v>
+        <v>978.43100000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-89.518800</v>
+        <v>-89.518799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>1183.226972</v>
+        <v>1183.2269719999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.328674</v>
+        <v>0.32867400000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.152000</v>
+        <v>988.15200000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-106.422000</v>
+        <v>-106.422</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>1194.723246</v>
@@ -1659,240 +2075,240 @@
         <v>0.331868</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.180000</v>
+        <v>996.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>1205.697257</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.334916</v>
+        <v>0.33491599999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-191.032000</v>
+        <v>-191.03200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1216.762977</v>
+        <v>1216.7629770000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.337990</v>
+        <v>0.33799000000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL6" s="1">
-        <v>-305.003000</v>
+        <v>-305.00299999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1227.288578</v>
+        <v>1227.2885779999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.340913</v>
+        <v>0.34091300000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1200.640000</v>
+        <v>1200.6400000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-486.471000</v>
+        <v>-486.471</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1238.411860</v>
+        <v>1238.4118599999999</v>
       </c>
       <c r="BT6" s="1">
         <v>0.344003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1318.420000</v>
+        <v>1318.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.273000</v>
+        <v>-687.27300000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1249.183007</v>
+        <v>1249.1830070000001</v>
       </c>
       <c r="BY6" s="1">
         <v>0.346995</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-901.511000</v>
+        <v>-901.51099999999997</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>1260.450598</v>
+        <v>1260.4505979999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.350125</v>
+        <v>0.35012500000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1801.880000</v>
+        <v>1801.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1412.030000</v>
+        <v>-1412.03</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>1089.742521</v>
+        <v>1089.7425209999999</v>
       </c>
       <c r="B7" s="1">
-        <v>0.302706</v>
+        <v>0.30270599999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>895.304000</v>
+        <v>895.30399999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.895000</v>
+        <v>-203.89500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>1100.145098</v>
       </c>
       <c r="G7" s="1">
-        <v>0.305596</v>
+        <v>0.30559599999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>913.875000</v>
+        <v>913.875</v>
       </c>
       <c r="I7" s="1">
-        <v>-172.493000</v>
+        <v>-172.49299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1110.695996</v>
+        <v>1110.6959959999999</v>
       </c>
       <c r="L7" s="1">
         <v>0.308527</v>
       </c>
       <c r="M7" s="1">
-        <v>937.882000</v>
+        <v>937.88199999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.894000</v>
+        <v>-121.89400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1121.162111</v>
+        <v>1121.1621110000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.311434</v>
+        <v>0.31143399999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>944.803000</v>
+        <v>944.803</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.924000</v>
+        <v>-104.92400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1131.700111</v>
+        <v>1131.7001110000001</v>
       </c>
       <c r="V7" s="1">
         <v>0.314361</v>
       </c>
       <c r="W7" s="1">
-        <v>951.457000</v>
+        <v>951.45699999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.340800</v>
+        <v>-89.340800000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1141.859650</v>
+        <v>1141.8596500000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.317183</v>
+        <v>0.31718299999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.599000</v>
+        <v>958.59900000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.125300</v>
+        <v>-77.125299999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1152.111477</v>
+        <v>1152.1114769999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.320031</v>
+        <v>0.32003100000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.274000</v>
+        <v>963.274</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.501000</v>
+        <v>-74.501000000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1162.278440</v>
+        <v>1162.27844</v>
       </c>
       <c r="AK7" s="1">
         <v>0.322855</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.421000</v>
+        <v>970.42100000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.531500</v>
+        <v>-78.531499999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1173.265321</v>
+        <v>1173.2653210000001</v>
       </c>
       <c r="AP7" s="1">
         <v>0.325907</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.416000</v>
+        <v>978.41600000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-89.502900</v>
+        <v>-89.502899999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>1183.952123</v>
@@ -1901,300 +2317,300 @@
         <v>0.328876</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.150000</v>
+        <v>988.15</v>
       </c>
       <c r="AW7" s="1">
-        <v>-106.411000</v>
+        <v>-106.411</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>1195.099708</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.331972</v>
+        <v>0.33197199999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.193000</v>
+        <v>996.19299999999998</v>
       </c>
       <c r="BB7" s="1">
-        <v>-121.434000</v>
+        <v>-121.434</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>1206.061069</v>
+        <v>1206.0610690000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.335017</v>
+        <v>0.33501700000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1033.390000</v>
+        <v>1033.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-191.026000</v>
+        <v>-191.02600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1217.138943</v>
+        <v>1217.1389429999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.338094</v>
+        <v>0.33809400000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1097.070000</v>
+        <v>1097.07</v>
       </c>
       <c r="BL7" s="1">
-        <v>-304.966000</v>
+        <v>-304.96600000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>1227.987476</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.341108</v>
+        <v>0.34110800000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1200.710000</v>
+        <v>1200.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-486.469000</v>
+        <v>-486.46899999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1238.560163</v>
+        <v>1238.5601630000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.344044</v>
+        <v>0.34404400000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1318.380000</v>
+        <v>1318.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.363000</v>
+        <v>-687.36300000000006</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1249.324868</v>
+        <v>1249.3248679999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.347035</v>
+        <v>0.34703499999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1450.990000</v>
+        <v>1450.99</v>
       </c>
       <c r="CA7" s="1">
-        <v>-901.568000</v>
+        <v>-901.56799999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>1260.985781</v>
+        <v>1260.9857810000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.350274</v>
+        <v>0.35027399999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1803.350000</v>
+        <v>1803.35</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1412.070000</v>
+        <v>-1412.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>1090.158648</v>
+        <v>1090.1586480000001</v>
       </c>
       <c r="B8" s="1">
-        <v>0.302822</v>
+        <v>0.30282199999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>895.242000</v>
+        <v>895.24199999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-203.819000</v>
+        <v>-203.81899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1100.567689</v>
       </c>
       <c r="G8" s="1">
-        <v>0.305713</v>
+        <v>0.30571300000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>913.727000</v>
+        <v>913.72699999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-172.297000</v>
+        <v>-172.297</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>1110.990125</v>
       </c>
       <c r="L8" s="1">
-        <v>0.308608</v>
+        <v>0.30860799999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>937.826000</v>
+        <v>937.82600000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-122.082000</v>
+        <v>-122.08199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1121.507790</v>
+        <v>1121.5077900000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.311530</v>
+        <v>0.31152999999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>944.797000</v>
+        <v>944.79700000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.916000</v>
+        <v>-104.916</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>1132.045296</v>
       </c>
       <c r="V8" s="1">
-        <v>0.314457</v>
+        <v>0.31445699999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>951.472000</v>
+        <v>951.47199999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.405300</v>
+        <v>-89.405299999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1142.208324</v>
+        <v>1142.2083239999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.317280</v>
+        <v>0.31728000000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.635000</v>
+        <v>958.63499999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.083000</v>
+        <v>-77.082999999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1152.457157</v>
+        <v>1152.4571570000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.320127</v>
+        <v>0.32012699999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.235000</v>
+        <v>963.23500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.477400</v>
+        <v>-74.477400000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1162.975816</v>
+        <v>1162.9758159999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.323049</v>
+        <v>0.32304899999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.417000</v>
+        <v>970.41700000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.533600</v>
+        <v>-78.533600000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>1173.653193</v>
+        <v>1173.6531930000001</v>
       </c>
       <c r="AP8" s="1">
         <v>0.326015</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.425000</v>
+        <v>978.42499999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-89.494400</v>
+        <v>-89.494399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>1184.346560</v>
+        <v>1184.34656</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.328985</v>
+        <v>0.32898500000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.138000</v>
+        <v>988.13800000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-106.407000</v>
+        <v>-106.407</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>1195.475710</v>
+        <v>1195.4757099999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.332077</v>
+        <v>0.33207700000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.187000</v>
+        <v>996.18700000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-121.437000</v>
+        <v>-121.437</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>1206.730925</v>
+        <v>1206.7309250000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.335203</v>
+        <v>0.33520299999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-191.029000</v>
+        <v>-191.029</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>1217.818495</v>
@@ -2203,13 +2619,13 @@
         <v>0.338283</v>
       </c>
       <c r="BK8" s="1">
-        <v>1097.070000</v>
+        <v>1097.07</v>
       </c>
       <c r="BL8" s="1">
-        <v>-304.978000</v>
+        <v>-304.97800000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>1228.125824</v>
@@ -2218,240 +2634,240 @@
         <v>0.341146</v>
       </c>
       <c r="BP8" s="1">
-        <v>1200.640000</v>
+        <v>1200.6400000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-486.497000</v>
+        <v>-486.49700000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>1238.971346</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.344159</v>
+        <v>0.34415899999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1318.240000</v>
+        <v>1318.24</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.358000</v>
+        <v>-687.35799999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1249.750900</v>
+        <v>1249.7509</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.347153</v>
+        <v>0.34715299999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1450.940000</v>
+        <v>1450.94</v>
       </c>
       <c r="CA8" s="1">
-        <v>-901.520000</v>
+        <v>-901.52</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>1261.522842</v>
+        <v>1261.5228420000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.350423</v>
+        <v>0.35042299999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1802.150000</v>
+        <v>1802.15</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1411.070000</v>
+        <v>-1411.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>1090.450825</v>
+        <v>1090.4508249999999</v>
       </c>
       <c r="B9" s="1">
-        <v>0.302903</v>
+        <v>0.30290299999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>895.299000</v>
+        <v>895.29899999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-203.840000</v>
+        <v>-203.84</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>1100.843001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.305790</v>
+        <v>0.30579000000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>913.909000</v>
+        <v>913.90899999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.293000</v>
+        <v>-172.29300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>1111.334347</v>
       </c>
       <c r="L9" s="1">
-        <v>0.308704</v>
+        <v>0.30870399999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>937.855000</v>
+        <v>937.85500000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.852000</v>
+        <v>-121.852</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>1121.860942</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.311628</v>
+        <v>0.31162800000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>944.871000</v>
+        <v>944.87099999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.946000</v>
+        <v>-104.946</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>1132.389023</v>
       </c>
       <c r="V9" s="1">
-        <v>0.314553</v>
+        <v>0.31455300000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>951.503000</v>
+        <v>951.50300000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.342400</v>
+        <v>-89.342399999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>1142.908177</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.317474</v>
+        <v>0.31747399999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.557000</v>
+        <v>958.55700000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.111000</v>
+        <v>-77.111000000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1153.140645</v>
+        <v>1153.1406449999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.320317</v>
+        <v>0.32031700000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.277000</v>
+        <v>963.27700000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.482700</v>
+        <v>-74.482699999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>1163.321557</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.323145</v>
+        <v>0.32314500000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.418000</v>
+        <v>970.41800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.555100</v>
+        <v>-78.555099999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1174.032632</v>
+        <v>1174.0326319999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.326120</v>
+        <v>0.32612000000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.399000</v>
+        <v>978.399</v>
       </c>
       <c r="AR9" s="1">
-        <v>-89.496000</v>
+        <v>-89.495999999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>1184.710506</v>
+        <v>1184.7105059999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.329086</v>
+        <v>0.32908599999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.152000</v>
+        <v>988.15200000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-106.403000</v>
+        <v>-106.40300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>1196.129900</v>
+        <v>1196.1298999999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>0.332258</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.184000</v>
+        <v>996.18399999999997</v>
       </c>
       <c r="BB9" s="1">
-        <v>-121.445000</v>
+        <v>-121.44499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>1207.144557</v>
+        <v>1207.1445570000001</v>
       </c>
       <c r="BE9" s="1">
         <v>0.335318</v>
       </c>
       <c r="BF9" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-191.033000</v>
+        <v>-191.03299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>1217.924606</v>
@@ -2460,28 +2876,28 @@
         <v>0.338312</v>
       </c>
       <c r="BK9" s="1">
-        <v>1097.070000</v>
+        <v>1097.07</v>
       </c>
       <c r="BL9" s="1">
-        <v>-304.971000</v>
+        <v>-304.971</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>1228.531056</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.341259</v>
+        <v>0.34125899999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-486.491000</v>
+        <v>-486.49099999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>1239.397905</v>
@@ -2490,210 +2906,210 @@
         <v>0.344277</v>
       </c>
       <c r="BU9" s="1">
-        <v>1318.210000</v>
+        <v>1318.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.388000</v>
+        <v>-687.38800000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>1250.164599</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.347268</v>
+        <v>0.34726800000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="CA9" s="1">
-        <v>-901.564000</v>
+        <v>-901.56399999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1262.065573</v>
+        <v>1262.0655730000001</v>
       </c>
       <c r="CD9" s="1">
         <v>0.350574</v>
       </c>
       <c r="CE9" s="1">
-        <v>1802.780000</v>
+        <v>1802.78</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1412.530000</v>
+        <v>-1412.53</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>1090.790055</v>
+        <v>1090.7900549999999</v>
       </c>
       <c r="B10" s="1">
-        <v>0.302997</v>
+        <v>0.30299700000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>895.214000</v>
+        <v>895.21400000000006</v>
       </c>
       <c r="D10" s="1">
-        <v>-203.785000</v>
+        <v>-203.785</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1101.189176</v>
+        <v>1101.1891760000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.305886</v>
+        <v>0.30588599999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>913.923000</v>
+        <v>913.923</v>
       </c>
       <c r="I10" s="1">
-        <v>-172.314000</v>
+        <v>-172.31399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1111.680058</v>
+        <v>1111.6800579999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0.308800</v>
+        <v>0.30880000000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>937.907000</v>
+        <v>937.90700000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.924000</v>
+        <v>-121.92400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>1122.553854</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.311821</v>
+        <v>0.31182100000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>944.828000</v>
+        <v>944.82799999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.934000</v>
+        <v>-104.934</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>1133.075486</v>
       </c>
       <c r="V10" s="1">
-        <v>0.314743</v>
+        <v>0.31474299999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>951.474000</v>
+        <v>951.47400000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.288400</v>
+        <v>-89.288399999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>1143.257361</v>
+        <v>1143.2573609999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.317571</v>
+        <v>0.31757099999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.635000</v>
+        <v>958.63499999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.100600</v>
+        <v>-77.1006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>1153.488847</v>
+        <v>1153.4888470000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.320414</v>
+        <v>0.32041399999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.266000</v>
+        <v>963.26599999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.472800</v>
+        <v>-74.472800000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>1163.671734</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.323242</v>
+        <v>0.32324199999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.440000</v>
+        <v>970.44</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.578700</v>
+        <v>-78.578699999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>1174.694330</v>
+        <v>1174.69433</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.326304</v>
+        <v>0.32630399999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.441000</v>
+        <v>978.44100000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-89.492600</v>
+        <v>-89.492599999999996</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>1185.384110</v>
+        <v>1185.38411</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.329273</v>
+        <v>0.32927299999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.132000</v>
+        <v>988.13199999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-106.419000</v>
+        <v>-106.419</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>1196.560955</v>
+        <v>1196.5609549999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.332378</v>
+        <v>0.33237800000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.189000</v>
+        <v>996.18899999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-121.469000</v>
+        <v>-121.46899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>1207.533453</v>
@@ -2702,91 +3118,91 @@
         <v>0.335426</v>
       </c>
       <c r="BF10" s="1">
-        <v>1033.420000</v>
+        <v>1033.42</v>
       </c>
       <c r="BG10" s="1">
-        <v>-191.022000</v>
+        <v>-191.02199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>1218.289662</v>
+        <v>1218.2896619999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.338414</v>
+        <v>0.33841399999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL10" s="1">
-        <v>-304.961000</v>
+        <v>-304.96100000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>1228.929839</v>
+        <v>1228.9298389999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.341369</v>
+        <v>0.34136899999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-486.477000</v>
+        <v>-486.47699999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>1239.814050</v>
+        <v>1239.81405</v>
       </c>
       <c r="BT10" s="1">
         <v>0.344393</v>
       </c>
       <c r="BU10" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.342000</v>
+        <v>-687.34199999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>1250.621379</v>
+        <v>1250.6213789999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.347395</v>
+        <v>0.34739500000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1450.920000</v>
+        <v>1450.92</v>
       </c>
       <c r="CA10" s="1">
-        <v>-901.615000</v>
+        <v>-901.61500000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>1262.602740</v>
+        <v>1262.60274</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.350723</v>
+        <v>0.35072300000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1802.820000</v>
+        <v>1802.82</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1411.100000</v>
+        <v>-1411.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>1091.133286</v>
       </c>
@@ -2794,58 +3210,58 @@
         <v>0.303093</v>
       </c>
       <c r="C11" s="1">
-        <v>895.336000</v>
+        <v>895.33600000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.932000</v>
+        <v>-203.93199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1101.532906</v>
+        <v>1101.5329059999999</v>
       </c>
       <c r="G11" s="1">
         <v>0.305981</v>
       </c>
       <c r="H11" s="1">
-        <v>913.753000</v>
+        <v>913.75300000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-172.453000</v>
+        <v>-172.453</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1112.374001</v>
+        <v>1112.3740009999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0.308993</v>
+        <v>0.30899300000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>937.868000</v>
+        <v>937.86800000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.925000</v>
+        <v>-121.925</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1122.907018</v>
+        <v>1122.9070180000001</v>
       </c>
       <c r="Q11" s="1">
         <v>0.311919</v>
       </c>
       <c r="R11" s="1">
-        <v>944.763000</v>
+        <v>944.76300000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.955000</v>
+        <v>-104.955</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>1133.409294</v>
@@ -2854,420 +3270,420 @@
         <v>0.314836</v>
       </c>
       <c r="W11" s="1">
-        <v>951.460000</v>
+        <v>951.46</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.310400</v>
+        <v>-89.310400000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>1143.602081</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.317667</v>
+        <v>0.31766699999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.610000</v>
+        <v>958.61</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.064600</v>
+        <v>-77.064599999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1154.131186</v>
+        <v>1154.1311860000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.320592</v>
+        <v>0.32059199999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.291000</v>
+        <v>963.29100000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.425300</v>
+        <v>-74.425299999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1164.328901</v>
+        <v>1164.3289010000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.323425</v>
+        <v>0.32342500000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.414000</v>
+        <v>970.41399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.550800</v>
+        <v>-78.550799999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1175.112919</v>
+        <v>1175.1129189999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.326420</v>
+        <v>0.32641999999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.413000</v>
+        <v>978.41300000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-89.504700</v>
+        <v>-89.5047</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>1185.804681</v>
+        <v>1185.8046810000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.329390</v>
+        <v>0.32939000000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.151000</v>
+        <v>988.15099999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-106.416000</v>
+        <v>-106.416</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>1196.936394</v>
+        <v>1196.9363940000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>0.332482</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.192000</v>
+        <v>996.19200000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-121.450000</v>
+        <v>-121.45</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>1207.893516</v>
+        <v>1207.8935160000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.335526</v>
+        <v>0.33552599999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1033.410000</v>
+        <v>1033.4100000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-191.029000</v>
+        <v>-191.029</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>1218.664637</v>
+        <v>1218.6646370000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.338518</v>
+        <v>0.33851799999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1097.080000</v>
+        <v>1097.08</v>
       </c>
       <c r="BL11" s="1">
-        <v>-304.987000</v>
+        <v>-304.98700000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>1229.349983</v>
+        <v>1229.3499830000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.341486</v>
+        <v>0.34148600000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-486.516000</v>
+        <v>-486.51600000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>1240.230690</v>
+        <v>1240.2306900000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.344509</v>
+        <v>0.34450900000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.341000</v>
+        <v>-687.34100000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>1251.070755</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.347520</v>
+        <v>0.34752</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1450.990000</v>
+        <v>1450.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-901.681000</v>
+        <v>-901.68100000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1263.142387</v>
+        <v>1263.1423870000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.350873</v>
+        <v>0.35087299999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1801.930000</v>
+        <v>1801.93</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1412.070000</v>
+        <v>-1412.07</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>1091.817269</v>
+        <v>1091.8172689999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.303283</v>
+        <v>0.30328300000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>895.402000</v>
+        <v>895.40200000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-203.817000</v>
+        <v>-203.81700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>1102.221352</v>
       </c>
       <c r="G12" s="1">
-        <v>0.306173</v>
+        <v>0.30617299999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>913.611000</v>
+        <v>913.61099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-172.567000</v>
+        <v>-172.56700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1112.720170</v>
+        <v>1112.7201700000001</v>
       </c>
       <c r="L12" s="1">
         <v>0.309089</v>
       </c>
       <c r="M12" s="1">
-        <v>937.794000</v>
+        <v>937.79399999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.039000</v>
+        <v>-122.039</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1123.255691</v>
+        <v>1123.2556910000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.312015</v>
+        <v>0.31201499999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>944.768000</v>
+        <v>944.76800000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.961000</v>
+        <v>-104.961</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1133.765949</v>
+        <v>1133.7659490000001</v>
       </c>
       <c r="V12" s="1">
-        <v>0.314935</v>
+        <v>0.31493500000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>951.490000</v>
+        <v>951.49</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.371500</v>
+        <v>-89.371499999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>1144.258319</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.317850</v>
+        <v>0.31785000000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.566000</v>
+        <v>958.56600000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.122100</v>
+        <v>-77.122100000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1154.514562</v>
+        <v>1154.5145620000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.320698</v>
+        <v>0.32069799999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.253000</v>
+        <v>963.25300000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.482300</v>
+        <v>-74.482299999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1164.719749</v>
+        <v>1164.7197490000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.323533</v>
+        <v>0.32353300000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.411000</v>
+        <v>970.41099999999994</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.572700</v>
+        <v>-78.572699999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>1175.501318</v>
+        <v>1175.5013180000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.326528</v>
+        <v>0.32652799999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.443000</v>
+        <v>978.44299999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-89.491100</v>
+        <v>-89.491100000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>1186.199529</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.329500</v>
+        <v>0.32950000000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.158000</v>
+        <v>988.15800000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-106.385000</v>
+        <v>-106.38500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>1197.315834</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.332588</v>
+        <v>0.33258799999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.172000</v>
+        <v>996.17200000000003</v>
       </c>
       <c r="BB12" s="1">
-        <v>-121.464000</v>
+        <v>-121.464</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>1208.306684</v>
+        <v>1208.3066839999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.335641</v>
+        <v>0.33564100000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1033.420000</v>
+        <v>1033.42</v>
       </c>
       <c r="BG12" s="1">
-        <v>-191.034000</v>
+        <v>-191.03399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>1219.108061</v>
+        <v>1219.1080609999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.338641</v>
+        <v>0.33864100000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1097.070000</v>
+        <v>1097.07</v>
       </c>
       <c r="BL12" s="1">
-        <v>-304.984000</v>
+        <v>-304.98399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>1229.747775</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.341597</v>
+        <v>0.34159699999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1200.700000</v>
+        <v>1200.7</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-486.488000</v>
+        <v>-486.488</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>1240.646338</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.344624</v>
+        <v>0.34462399999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1317.980000</v>
+        <v>1317.98</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.247000</v>
+        <v>-687.24699999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>1251.490671</v>
@@ -3276,13 +3692,13 @@
         <v>0.347636</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1450.970000</v>
+        <v>1450.97</v>
       </c>
       <c r="CA12" s="1">
-        <v>-901.472000</v>
+        <v>-901.47199999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>1263.685009</v>
@@ -3291,302 +3707,302 @@
         <v>0.351024</v>
       </c>
       <c r="CE12" s="1">
-        <v>1803.370000</v>
+        <v>1803.37</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1412.060000</v>
+        <v>-1412.06</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>1092.157526</v>
       </c>
       <c r="B13" s="1">
-        <v>0.303377</v>
+        <v>0.30337700000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>895.282000</v>
+        <v>895.28200000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-203.764000</v>
+        <v>-203.76400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1102.566604</v>
+        <v>1102.5666040000001</v>
       </c>
       <c r="G13" s="1">
-        <v>0.306269</v>
+        <v>0.30626900000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>913.682000</v>
+        <v>913.68200000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-172.557000</v>
+        <v>-172.55699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1113.067369</v>
+        <v>1113.0673690000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0.309185</v>
+        <v>0.30918499999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>937.823000</v>
+        <v>937.82299999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.995000</v>
+        <v>-121.995</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1123.899994</v>
+        <v>1123.8999940000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.312194</v>
+        <v>0.31219400000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>944.860000</v>
+        <v>944.86</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.903000</v>
+        <v>-104.90300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1134.414684</v>
+        <v>1134.4146840000001</v>
       </c>
       <c r="V13" s="1">
-        <v>0.315115</v>
+        <v>0.31511499999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>951.552000</v>
+        <v>951.55200000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.344700</v>
+        <v>-89.344700000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>1144.649149</v>
+        <v>1144.6491490000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.317958</v>
+        <v>0.31795800000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.536000</v>
+        <v>958.53599999999994</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.985100</v>
+        <v>-76.985100000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1154.859777</v>
+        <v>1154.8597769999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.320794</v>
+        <v>0.32079400000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.301000</v>
+        <v>963.30100000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.462300</v>
+        <v>-74.462299999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1165.067972</v>
+        <v>1165.0679720000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.323630</v>
+        <v>0.32362999999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.425000</v>
+        <v>970.42499999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.572300</v>
+        <v>-78.572299999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>1175.863909</v>
+        <v>1175.8639089999999</v>
       </c>
       <c r="AP13" s="1">
         <v>0.326629</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.450000</v>
+        <v>978.45</v>
       </c>
       <c r="AR13" s="1">
-        <v>-89.476200</v>
+        <v>-89.476200000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>1186.563566</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.329601</v>
+        <v>0.32960099999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.126000</v>
+        <v>988.12599999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-106.407000</v>
+        <v>-106.407</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>1197.730521</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.332703</v>
+        <v>0.33270300000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.155000</v>
+        <v>996.15499999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-121.454000</v>
+        <v>-121.45399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1208.617674</v>
+        <v>1208.6176740000001</v>
       </c>
       <c r="BE13" s="1">
         <v>0.335727</v>
       </c>
       <c r="BF13" s="1">
-        <v>1033.410000</v>
+        <v>1033.4100000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-191.046000</v>
+        <v>-191.04599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1219.408140</v>
+        <v>1219.40814</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.338724</v>
+        <v>0.33872400000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1097.080000</v>
+        <v>1097.08</v>
       </c>
       <c r="BL13" s="1">
-        <v>-304.958000</v>
+        <v>-304.95800000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>1230.169838</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.341714</v>
+        <v>0.34171400000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-486.492000</v>
+        <v>-486.49200000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>1241.061520</v>
+        <v>1241.06152</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.344739</v>
+        <v>0.34473900000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.190000</v>
+        <v>-687.19</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>1251.910977</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.347753</v>
+        <v>0.34775299999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1450.990000</v>
+        <v>1450.99</v>
       </c>
       <c r="CA13" s="1">
-        <v>-901.608000</v>
+        <v>-901.60799999999995</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>1264.222814</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.351173</v>
+        <v>0.35117300000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1802.360000</v>
+        <v>1802.36</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1410.940000</v>
+        <v>-1410.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>1092.501748</v>
+        <v>1092.5017479999999</v>
       </c>
       <c r="B14" s="1">
-        <v>0.303473</v>
+        <v>0.30347299999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>895.387000</v>
+        <v>895.38699999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-203.571000</v>
+        <v>-203.571</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1102.913270</v>
+        <v>1102.91327</v>
       </c>
       <c r="G14" s="1">
         <v>0.306365</v>
       </c>
       <c r="H14" s="1">
-        <v>913.880000</v>
+        <v>913.88</v>
       </c>
       <c r="I14" s="1">
-        <v>-172.379000</v>
+        <v>-172.37899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1113.722088</v>
@@ -3595,255 +4011,255 @@
         <v>0.309367</v>
       </c>
       <c r="M14" s="1">
-        <v>937.946000</v>
+        <v>937.94600000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.014000</v>
+        <v>-122.014</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>1124.301258</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.312306</v>
+        <v>0.31230599999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>944.865000</v>
+        <v>944.86500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.925000</v>
+        <v>-104.925</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1134.802590</v>
+        <v>1134.80259</v>
       </c>
       <c r="V14" s="1">
-        <v>0.315223</v>
+        <v>0.31522299999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>951.490000</v>
+        <v>951.49</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.346200</v>
+        <v>-89.346199999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>1144.997327</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.318055</v>
+        <v>0.31805499999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.561000</v>
+        <v>958.56100000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.047000</v>
+        <v>-77.046999999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>1155.203011</v>
+        <v>1155.2030110000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.320890</v>
+        <v>0.32089000000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.272000</v>
+        <v>963.27200000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.451500</v>
+        <v>-74.451499999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>1165.413691</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.323726</v>
+        <v>0.32372600000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.433000</v>
+        <v>970.43299999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.569700</v>
+        <v>-78.569699999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>1176.277525</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.326744</v>
+        <v>0.32674399999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.438000</v>
+        <v>978.43799999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-89.461600</v>
+        <v>-89.461600000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>1187.295159</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.329804</v>
+        <v>0.32980399999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.142000</v>
+        <v>988.14200000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-106.398000</v>
+        <v>-106.398</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>1198.033050</v>
+        <v>1198.03305</v>
       </c>
       <c r="AZ14" s="1">
         <v>0.332787</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.154000</v>
+        <v>996.154</v>
       </c>
       <c r="BB14" s="1">
-        <v>-121.468000</v>
+        <v>-121.468</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>1208.976284</v>
+        <v>1208.9762840000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.335827</v>
+        <v>0.33582699999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1033.430000</v>
+        <v>1033.43</v>
       </c>
       <c r="BG14" s="1">
-        <v>-191.049000</v>
+        <v>-191.04900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1219.816845</v>
+        <v>1219.8168450000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.338838</v>
+        <v>0.33883799999999997</v>
       </c>
       <c r="BK14" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL14" s="1">
-        <v>-304.989000</v>
+        <v>-304.98899999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>1230.565158</v>
+        <v>1230.5651580000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.341824</v>
+        <v>0.34182400000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1200.720000</v>
+        <v>1200.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-486.513000</v>
+        <v>-486.51299999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>1241.498463</v>
+        <v>1241.4984629999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.344861</v>
+        <v>0.34486099999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1317.990000</v>
+        <v>1317.99</v>
       </c>
       <c r="BV14" s="1">
-        <v>-687.130000</v>
+        <v>-687.13</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>1252.340513</v>
+        <v>1252.3405130000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.347872</v>
+        <v>0.34787200000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1451.060000</v>
+        <v>1451.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-901.550000</v>
+        <v>-901.55</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>1264.763810</v>
+        <v>1264.7638099999999</v>
       </c>
       <c r="CD14" s="1">
         <v>0.351323</v>
       </c>
       <c r="CE14" s="1">
-        <v>1802.550000</v>
+        <v>1802.55</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1412.930000</v>
+        <v>-1412.93</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>1093.157492</v>
       </c>
       <c r="B15" s="1">
-        <v>0.303655</v>
+        <v>0.30365500000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>895.488000</v>
+        <v>895.48800000000006</v>
       </c>
       <c r="D15" s="1">
-        <v>-203.876000</v>
+        <v>-203.876</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1103.561542</v>
+        <v>1103.5615419999999</v>
       </c>
       <c r="G15" s="1">
-        <v>0.306545</v>
+        <v>0.30654500000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>913.651000</v>
+        <v>913.65099999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-172.559000</v>
+        <v>-172.559</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>1114.101527</v>
@@ -3852,345 +4268,345 @@
         <v>0.309473</v>
       </c>
       <c r="M15" s="1">
-        <v>937.676000</v>
+        <v>937.67600000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.908000</v>
+        <v>-121.908</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1124.648953</v>
+        <v>1124.6489529999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.312402</v>
+        <v>0.31240200000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>944.854000</v>
+        <v>944.85400000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.928000</v>
+        <v>-104.928</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1135.147773</v>
+        <v>1135.1477729999999</v>
       </c>
       <c r="V15" s="1">
-        <v>0.315319</v>
+        <v>0.31531900000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>951.417000</v>
+        <v>951.41700000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.369100</v>
+        <v>-89.369100000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>1145.348530</v>
+        <v>1145.34853</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.318152</v>
+        <v>0.31815199999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.644000</v>
+        <v>958.64400000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.049800</v>
+        <v>-77.049800000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>1155.626593</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.321007</v>
+        <v>0.32100699999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.243000</v>
+        <v>963.24300000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.469400</v>
+        <v>-74.469399999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1165.824340</v>
+        <v>1165.8243399999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.323840</v>
+        <v>0.32384000000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.410000</v>
+        <v>970.41</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.495400</v>
+        <v>-78.495400000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>1176.583558</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.326829</v>
+        <v>0.32682899999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.432000</v>
+        <v>978.43200000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-89.476400</v>
+        <v>-89.476399999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>1187.685048</v>
+        <v>1187.6850480000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.329913</v>
+        <v>0.32991300000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.141000</v>
+        <v>988.14099999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-106.392000</v>
+        <v>-106.392</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>1198.394137</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.332887</v>
+        <v>0.33288699999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.174000</v>
+        <v>996.17399999999998</v>
       </c>
       <c r="BB15" s="1">
-        <v>-121.460000</v>
+        <v>-121.46</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>1209.340345</v>
+        <v>1209.3403450000001</v>
       </c>
       <c r="BE15" s="1">
         <v>0.335928</v>
       </c>
       <c r="BF15" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-191.037000</v>
+        <v>-191.03700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1220.383275</v>
+        <v>1220.3832749999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.338995</v>
+        <v>0.33899499999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1097.060000</v>
+        <v>1097.06</v>
       </c>
       <c r="BL15" s="1">
-        <v>-304.973000</v>
+        <v>-304.97300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>1230.990221</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.341942</v>
+        <v>0.34194200000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-486.519000</v>
+        <v>-486.51900000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>1241.928494</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.344980</v>
+        <v>0.34498000000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1317.940000</v>
+        <v>1317.94</v>
       </c>
       <c r="BV15" s="1">
-        <v>-687.047000</v>
+        <v>-687.04700000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>1252.756167</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.347988</v>
+        <v>0.34798800000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1450.970000</v>
+        <v>1450.97</v>
       </c>
       <c r="CA15" s="1">
-        <v>-901.596000</v>
+        <v>-901.596</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>1265.303488</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.351473</v>
+        <v>0.35147299999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1803.320000</v>
+        <v>1803.32</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1411.540000</v>
+        <v>-1411.54</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>1093.523048</v>
       </c>
       <c r="B16" s="1">
-        <v>0.303756</v>
+        <v>0.30375600000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>895.235000</v>
+        <v>895.23500000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-203.837000</v>
+        <v>-203.83699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1103.944453</v>
+        <v>1103.9444530000001</v>
       </c>
       <c r="G16" s="1">
-        <v>0.306651</v>
+        <v>0.30665100000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>914.035000</v>
+        <v>914.03499999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-172.308000</v>
+        <v>-172.30799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>1114.450711</v>
       </c>
       <c r="L16" s="1">
-        <v>0.309570</v>
+        <v>0.30957000000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>937.987000</v>
+        <v>937.98699999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.903000</v>
+        <v>-121.90300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>1124.998634</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.312500</v>
+        <v>0.3125</v>
       </c>
       <c r="R16" s="1">
-        <v>944.851000</v>
+        <v>944.851</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.944000</v>
+        <v>-104.944</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1135.491995</v>
+        <v>1135.4919950000001</v>
       </c>
       <c r="V16" s="1">
-        <v>0.315414</v>
+        <v>0.31541400000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>951.500000</v>
+        <v>951.5</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.339900</v>
+        <v>-89.3399</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>1145.757695</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.318266</v>
+        <v>0.31826599999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.621000</v>
+        <v>958.62099999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.056000</v>
+        <v>-77.055999999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1155.918736</v>
+        <v>1155.9187360000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.321089</v>
+        <v>0.32108900000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.231000</v>
+        <v>963.23099999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.454200</v>
+        <v>-74.4542</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1166.124451</v>
+        <v>1166.1244509999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.323923</v>
+        <v>0.32392300000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.422000</v>
+        <v>970.42200000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.536200</v>
+        <v>-78.536199999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>1176.941701</v>
@@ -4199,650 +4615,650 @@
         <v>0.326928</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.427000</v>
+        <v>978.42700000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-89.500000</v>
+        <v>-89.5</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>1188.051589</v>
+        <v>1188.0515889999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.330014</v>
+        <v>0.33001399999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.133000</v>
+        <v>988.13300000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-106.426000</v>
+        <v>-106.426</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>1198.750760</v>
+        <v>1198.7507599999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>0.332986</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.184000</v>
+        <v>996.18399999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-121.456000</v>
+        <v>-121.456</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>1210.061033</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.336128</v>
+        <v>0.33612799999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1033.380000</v>
+        <v>1033.3800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-191.050000</v>
+        <v>-191.05</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>1220.567787</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.339047</v>
+        <v>0.33904699999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1097.060000</v>
+        <v>1097.06</v>
       </c>
       <c r="BL16" s="1">
-        <v>-304.971000</v>
+        <v>-304.971</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>1231.383548</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.342051</v>
+        <v>0.34205099999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-486.540000</v>
+        <v>-486.54</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>1242.337734</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.345094</v>
+        <v>0.34509400000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1317.920000</v>
+        <v>1317.92</v>
       </c>
       <c r="BV16" s="1">
-        <v>-686.961000</v>
+        <v>-686.96100000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>1253.205536</v>
+        <v>1253.2055359999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.348113</v>
+        <v>0.34811300000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1451.050000</v>
+        <v>1451.05</v>
       </c>
       <c r="CA16" s="1">
-        <v>-901.598000</v>
+        <v>-901.59799999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>1266.145662</v>
+        <v>1266.1456619999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.351707</v>
+        <v>0.35170699999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1802.470000</v>
+        <v>1802.47</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1412.550000</v>
+        <v>-1412.55</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>1093.867236</v>
       </c>
       <c r="B17" s="1">
-        <v>0.303852</v>
+        <v>0.30385200000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>895.354000</v>
+        <v>895.35400000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-203.616000</v>
+        <v>-203.61600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>1104.287685</v>
       </c>
       <c r="G17" s="1">
-        <v>0.306747</v>
+        <v>0.30674699999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>913.779000</v>
+        <v>913.779</v>
       </c>
       <c r="I17" s="1">
-        <v>-172.524000</v>
+        <v>-172.524</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>1114.793482</v>
       </c>
       <c r="L17" s="1">
-        <v>0.309665</v>
+        <v>0.30966500000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>938.064000</v>
+        <v>938.06399999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-122.006000</v>
+        <v>-122.006</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1125.409356</v>
+        <v>1125.4093559999999</v>
       </c>
       <c r="Q17" s="1">
         <v>0.312614</v>
       </c>
       <c r="R17" s="1">
-        <v>944.836000</v>
+        <v>944.83600000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.929000</v>
+        <v>-104.929</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1135.938892</v>
+        <v>1135.9388919999999</v>
       </c>
       <c r="V17" s="1">
-        <v>0.315539</v>
+        <v>0.31553900000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>951.491000</v>
+        <v>951.49099999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.331900</v>
+        <v>-89.331900000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>1146.052841</v>
+        <v>1146.0528409999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.318348</v>
+        <v>0.31834800000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.669000</v>
+        <v>958.66899999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.170900</v>
+        <v>-77.170900000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>1156.263456</v>
+        <v>1156.2634559999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.321184</v>
+        <v>0.32118400000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.236000</v>
+        <v>963.23599999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.469000</v>
+        <v>-74.468999999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1166.472610</v>
+        <v>1166.47261</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.324020</v>
+        <v>0.32401999999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.395000</v>
+        <v>970.39499999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.565400</v>
+        <v>-78.565399999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>1177.302756</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.327029</v>
+        <v>0.32702900000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.468000</v>
+        <v>978.46799999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-89.470100</v>
+        <v>-89.470100000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>1188.780214</v>
+        <v>1188.7802139999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.330217</v>
+        <v>0.33021699999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.153000</v>
+        <v>988.15300000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-106.397000</v>
+        <v>-106.39700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>1199.469463</v>
+        <v>1199.4694629999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.333186</v>
+        <v>0.33318599999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.173000</v>
+        <v>996.173</v>
       </c>
       <c r="BB17" s="1">
-        <v>-121.467000</v>
+        <v>-121.467</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>1210.421626</v>
+        <v>1210.4216260000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.336228</v>
+        <v>0.33622800000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1033.410000</v>
+        <v>1033.4100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-191.047000</v>
+        <v>-191.047</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>1220.941275</v>
+        <v>1220.9412749999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.339150</v>
+        <v>0.33915000000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL17" s="1">
-        <v>-304.994000</v>
+        <v>-304.99400000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>1231.802210</v>
+        <v>1231.8022100000001</v>
       </c>
       <c r="BO17" s="1">
         <v>0.342167</v>
       </c>
       <c r="BP17" s="1">
-        <v>1200.650000</v>
+        <v>1200.6500000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-486.521000</v>
+        <v>-486.52100000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>1243.075742</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.345299</v>
+        <v>0.34529900000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1317.990000</v>
+        <v>1317.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-686.924000</v>
+        <v>-686.92399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>1253.652472</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.348237</v>
+        <v>0.34823700000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1450.920000</v>
+        <v>1450.92</v>
       </c>
       <c r="CA17" s="1">
-        <v>-901.495000</v>
+        <v>-901.495</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>1266.383246</v>
+        <v>1266.3832460000001</v>
       </c>
       <c r="CD17" s="1">
         <v>0.351773</v>
       </c>
       <c r="CE17" s="1">
-        <v>1802.470000</v>
+        <v>1802.47</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1412.540000</v>
+        <v>-1412.54</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>1094.210467</v>
+        <v>1094.2104670000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.303947</v>
+        <v>0.30394700000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>895.264000</v>
+        <v>895.26400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.744000</v>
+        <v>-203.744</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>1104.694911</v>
       </c>
       <c r="G18" s="1">
-        <v>0.306860</v>
+        <v>0.30686000000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>913.819000</v>
+        <v>913.81899999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-172.557000</v>
+        <v>-172.55699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>1115.211078</v>
       </c>
       <c r="L18" s="1">
-        <v>0.309781</v>
+        <v>0.30978099999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>937.774000</v>
+        <v>937.774</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.845000</v>
+        <v>-121.845</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>1125.706424</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.312696</v>
+        <v>0.31269599999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>944.840000</v>
+        <v>944.84</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.885000</v>
+        <v>-104.88500000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1136.186890</v>
+        <v>1136.1868899999999</v>
       </c>
       <c r="V18" s="1">
-        <v>0.315607</v>
+        <v>0.31560700000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>951.504000</v>
+        <v>951.50400000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.364700</v>
+        <v>-89.364699999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>1146.402030</v>
+        <v>1146.40203</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.318445</v>
+        <v>0.31844499999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.618000</v>
+        <v>958.61800000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.078900</v>
+        <v>-77.078900000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>1156.606687</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.321280</v>
+        <v>0.32128000000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.261000</v>
+        <v>963.26099999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.458800</v>
+        <v>-74.458799999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1166.821298</v>
+        <v>1166.8212980000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.324117</v>
+        <v>0.32411699999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.454000</v>
+        <v>970.45399999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.492700</v>
+        <v>-78.492699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>1178.022984</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.327229</v>
+        <v>0.32722899999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.453000</v>
+        <v>978.45299999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-89.442100</v>
+        <v>-89.442099999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1189.146228</v>
+        <v>1189.1462280000001</v>
       </c>
       <c r="AU18" s="1">
         <v>0.330318</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.131000</v>
+        <v>988.13099999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-106.414000</v>
+        <v>-106.414</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>1199.830054</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.333286</v>
+        <v>0.33328600000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.186000</v>
+        <v>996.18600000000004</v>
       </c>
       <c r="BB18" s="1">
-        <v>-121.455000</v>
+        <v>-121.455</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>1210.782216</v>
+        <v>1210.7822160000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.336328</v>
+        <v>0.33632800000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1033.390000</v>
+        <v>1033.3900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-191.056000</v>
+        <v>-191.05600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1221.626250</v>
+        <v>1221.62625</v>
       </c>
       <c r="BJ18" s="1">
         <v>0.339341</v>
       </c>
       <c r="BK18" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL18" s="1">
-        <v>-304.987000</v>
+        <v>-304.98700000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>1232.502028</v>
+        <v>1232.5020280000001</v>
       </c>
       <c r="BO18" s="1">
         <v>0.342362</v>
       </c>
       <c r="BP18" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-486.510000</v>
+        <v>-486.51</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>1243.196765</v>
+        <v>1243.1967649999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.345332</v>
+        <v>0.34533199999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="BV18" s="1">
-        <v>-686.888000</v>
+        <v>-686.88800000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>1254.049231</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.348347</v>
+        <v>0.34834700000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="CA18" s="1">
-        <v>-901.555000</v>
+        <v>-901.55499999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>1266.903054</v>
+        <v>1266.9030540000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.351918</v>
+        <v>0.35191800000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1803.300000</v>
+        <v>1803.3</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1411.810000</v>
+        <v>-1411.81</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>1094.629089</v>
       </c>
@@ -4850,178 +5266,178 @@
         <v>0.304064</v>
       </c>
       <c r="C19" s="1">
-        <v>895.333000</v>
+        <v>895.33299999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-203.739000</v>
+        <v>-203.739</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1104.992005</v>
+        <v>1104.9920050000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.306942</v>
+        <v>0.30694199999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>913.837000</v>
+        <v>913.83699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.420000</v>
+        <v>-172.42</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1115.505702</v>
+        <v>1115.5057019999999</v>
       </c>
       <c r="L19" s="1">
         <v>0.309863</v>
       </c>
       <c r="M19" s="1">
-        <v>937.724000</v>
+        <v>937.72400000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.734000</v>
+        <v>-121.73399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>1126.054648</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.312793</v>
+        <v>0.31279299999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>944.841000</v>
+        <v>944.84100000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.917000</v>
+        <v>-104.917</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1136.534100</v>
+        <v>1136.5341000000001</v>
       </c>
       <c r="V19" s="1">
-        <v>0.315704</v>
+        <v>0.31570399999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>951.493000</v>
+        <v>951.49300000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.325000</v>
+        <v>-89.325000000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>1146.751218</v>
+        <v>1146.7512180000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.318542</v>
+        <v>0.31854199999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.595000</v>
+        <v>958.59500000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.006400</v>
+        <v>-77.006399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>1157.289216</v>
+        <v>1157.2892159999999</v>
       </c>
       <c r="AF19" s="1">
         <v>0.321469</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.183000</v>
+        <v>963.18299999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.455900</v>
+        <v>-74.4559</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>1167.518673</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.324311</v>
+        <v>0.32431100000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.423000</v>
+        <v>970.423</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.509300</v>
+        <v>-78.509299999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>1178.383080</v>
+        <v>1178.3830800000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.327329</v>
+        <v>0.32732899999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.440000</v>
+        <v>978.44</v>
       </c>
       <c r="AR19" s="1">
-        <v>-89.467700</v>
+        <v>-89.467699999999994</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>1189.508340</v>
+        <v>1189.5083400000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.330419</v>
+        <v>0.33041900000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.151000</v>
+        <v>988.15099999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-106.424000</v>
+        <v>-106.42400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>1200.188166</v>
+        <v>1200.1881659999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.333386</v>
+        <v>0.33338600000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.165000</v>
+        <v>996.16499999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-121.439000</v>
+        <v>-121.43899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>1211.446403</v>
+        <v>1211.4464029999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.336513</v>
+        <v>0.33651300000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-191.026000</v>
+        <v>-191.02600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>1222.098937</v>
@@ -5030,180 +5446,180 @@
         <v>0.339472</v>
       </c>
       <c r="BK19" s="1">
-        <v>1097.060000</v>
+        <v>1097.06</v>
       </c>
       <c r="BL19" s="1">
-        <v>-304.958000</v>
+        <v>-304.95800000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>1232.639419</v>
+        <v>1232.6394190000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.342400</v>
+        <v>0.34239999999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1200.680000</v>
+        <v>1200.68</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-486.474000</v>
+        <v>-486.47399999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>1243.607811</v>
+        <v>1243.6078110000001</v>
       </c>
       <c r="BT19" s="1">
         <v>0.345447</v>
       </c>
       <c r="BU19" s="1">
-        <v>1318.170000</v>
+        <v>1318.17</v>
       </c>
       <c r="BV19" s="1">
-        <v>-686.840000</v>
+        <v>-686.84</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>1254.494142</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.348471</v>
+        <v>0.34847099999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1451.020000</v>
+        <v>1451.02</v>
       </c>
       <c r="CA19" s="1">
-        <v>-901.589000</v>
+        <v>-901.58900000000006</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>1267.422372</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.352062</v>
+        <v>0.35206199999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1802.250000</v>
+        <v>1802.25</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1410.970000</v>
+        <v>-1410.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>1094.910321</v>
+        <v>1094.9103210000001</v>
       </c>
       <c r="B20" s="1">
-        <v>0.304142</v>
+        <v>0.30414200000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>895.303000</v>
+        <v>895.303</v>
       </c>
       <c r="D20" s="1">
-        <v>-203.680000</v>
+        <v>-203.68</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1105.339730</v>
+        <v>1105.3397299999999</v>
       </c>
       <c r="G20" s="1">
-        <v>0.307039</v>
+        <v>0.30703900000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>913.824000</v>
+        <v>913.82399999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-172.442000</v>
+        <v>-172.44200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1115.852536</v>
+        <v>1115.8525360000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.309959</v>
+        <v>0.30995899999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>937.747000</v>
+        <v>937.74699999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.839000</v>
+        <v>-121.839</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>1126.402313</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.312890</v>
+        <v>0.31289</v>
       </c>
       <c r="R20" s="1">
-        <v>944.866000</v>
+        <v>944.86599999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.934000</v>
+        <v>-104.934</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>1137.221049</v>
       </c>
       <c r="V20" s="1">
-        <v>0.315895</v>
+        <v>0.31589499999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>951.468000</v>
+        <v>951.46799999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.266500</v>
+        <v>-89.266499999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>1147.447099</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.318735</v>
+        <v>0.31873499999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.584000</v>
+        <v>958.58399999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.101300</v>
+        <v>-77.101299999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>1157.633934</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.321565</v>
+        <v>0.32156499999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.230000</v>
+        <v>963.23</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.466600</v>
+        <v>-74.4666</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>1167.866368</v>
@@ -5212,225 +5628,225 @@
         <v>0.324407</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.433000</v>
+        <v>970.43299999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.546100</v>
+        <v>-78.546099999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>1178.744131</v>
+        <v>1178.7441309999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.327429</v>
+        <v>0.32742900000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.483000</v>
+        <v>978.48299999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-89.457700</v>
+        <v>-89.457700000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>1190.169475</v>
+        <v>1190.1694749999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.330603</v>
+        <v>0.33060299999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.145000</v>
+        <v>988.14499999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-106.408000</v>
+        <v>-106.408</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>1200.843878</v>
+        <v>1200.8438779999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.333568</v>
+        <v>0.33356799999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.166000</v>
+        <v>996.16600000000005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-121.451000</v>
+        <v>-121.45099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>1211.897718</v>
+        <v>1211.8977179999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.336638</v>
+        <v>0.33663799999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1033.390000</v>
+        <v>1033.3900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-191.040000</v>
+        <v>-191.04</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>1222.488835</v>
+        <v>1222.4888350000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.339580</v>
+        <v>0.33957999999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1097.060000</v>
+        <v>1097.06</v>
       </c>
       <c r="BL20" s="1">
-        <v>-304.995000</v>
+        <v>-304.995</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>1233.050604</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.342514</v>
+        <v>0.34251399999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1200.640000</v>
+        <v>1200.6400000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-486.542000</v>
+        <v>-486.54199999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>1244.040461</v>
+        <v>1244.0404610000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.345567</v>
+        <v>0.34556700000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1318.250000</v>
+        <v>1318.25</v>
       </c>
       <c r="BV20" s="1">
-        <v>-686.862000</v>
+        <v>-686.86199999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>1254.927646</v>
+        <v>1254.9276460000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.348591</v>
+        <v>0.34859099999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1451.040000</v>
+        <v>1451.04</v>
       </c>
       <c r="CA20" s="1">
-        <v>-901.553000</v>
+        <v>-901.553</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>1267.941676</v>
+        <v>1267.9416759999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.352206</v>
+        <v>0.35220600000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1801.570000</v>
+        <v>1801.57</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1412.290000</v>
+        <v>-1412.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>1095.253552</v>
+        <v>1095.2535519999999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.304237</v>
+        <v>0.30423699999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>895.339000</v>
+        <v>895.33900000000006</v>
       </c>
       <c r="D21" s="1">
-        <v>-203.757000</v>
+        <v>-203.75700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1105.684450</v>
+        <v>1105.68445</v>
       </c>
       <c r="G21" s="1">
-        <v>0.307135</v>
+        <v>0.30713499999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>913.819000</v>
+        <v>913.81899999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-172.601000</v>
+        <v>-172.601</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>1116.195141</v>
+        <v>1116.1951409999999</v>
       </c>
       <c r="L21" s="1">
         <v>0.310054</v>
       </c>
       <c r="M21" s="1">
-        <v>937.859000</v>
+        <v>937.85900000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.863000</v>
+        <v>-121.863</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1127.101716</v>
+        <v>1127.1017159999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.313084</v>
+        <v>0.31308399999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>944.860000</v>
+        <v>944.86</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.944000</v>
+        <v>-104.944</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1137.563818</v>
+        <v>1137.5638180000001</v>
       </c>
       <c r="V21" s="1">
-        <v>0.315990</v>
+        <v>0.31598999999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>951.516000</v>
+        <v>951.51599999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.357200</v>
+        <v>-89.357200000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>1147.796253</v>
@@ -5439,315 +5855,315 @@
         <v>0.318832</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.601000</v>
+        <v>958.601</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.002400</v>
+        <v>-77.002399999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1157.977133</v>
+        <v>1157.9771330000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.321660</v>
+        <v>0.32166</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.234000</v>
+        <v>963.23400000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.399700</v>
+        <v>-74.399699999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1168.215552</v>
+        <v>1168.2155519999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.324504</v>
+        <v>0.32450400000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.387000</v>
+        <v>970.38699999999994</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.535400</v>
+        <v>-78.535399999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>1179.411783</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.327614</v>
+        <v>0.32761400000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.422000</v>
+        <v>978.42200000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-89.460000</v>
+        <v>-89.46</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>1190.281106</v>
+        <v>1190.2811059999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.330634</v>
+        <v>0.33063399999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.147000</v>
+        <v>988.14700000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-106.428000</v>
+        <v>-106.428</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>1201.263525</v>
+        <v>1201.2635250000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.333684</v>
+        <v>0.33368399999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.156000</v>
+        <v>996.15599999999995</v>
       </c>
       <c r="BB21" s="1">
-        <v>-121.454000</v>
+        <v>-121.45399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>1212.258310</v>
+        <v>1212.2583099999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.336738</v>
+        <v>0.33673799999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-191.038000</v>
+        <v>-191.03800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>1222.864759</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.339685</v>
+        <v>0.33968500000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL21" s="1">
-        <v>-304.980000</v>
+        <v>-304.98</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>1233.444922</v>
+        <v>1233.4449219999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.342624</v>
+        <v>0.34262399999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1200.680000</v>
+        <v>1200.68</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-486.493000</v>
+        <v>-486.49299999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>1244.469995</v>
+        <v>1244.4699949999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.345686</v>
+        <v>0.34568599999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1318.330000</v>
+        <v>1318.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-686.811000</v>
+        <v>-686.81100000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>1255.350274</v>
+        <v>1255.3502739999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.348708</v>
+        <v>0.34870800000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1450.960000</v>
+        <v>1450.96</v>
       </c>
       <c r="CA21" s="1">
-        <v>-901.506000</v>
+        <v>-901.50599999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>1268.454571</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.352348</v>
+        <v>0.35234799999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1801.890000</v>
+        <v>1801.89</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1411.490000</v>
+        <v>-1411.49</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>1095.593839</v>
+        <v>1095.5938389999999</v>
       </c>
       <c r="B22" s="1">
-        <v>0.304332</v>
+        <v>0.30433199999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>895.256000</v>
+        <v>895.25599999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-203.600000</v>
+        <v>-203.6</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1106.374393</v>
+        <v>1106.3743930000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.307326</v>
+        <v>0.30732599999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>913.708000</v>
+        <v>913.70799999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-172.394000</v>
+        <v>-172.39400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>1116.887558</v>
+        <v>1116.8875579999999</v>
       </c>
       <c r="L22" s="1">
         <v>0.310247</v>
       </c>
       <c r="M22" s="1">
-        <v>937.888000</v>
+        <v>937.88800000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.927000</v>
+        <v>-121.92700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1127.451528</v>
+        <v>1127.4515280000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.313181</v>
+        <v>0.31318099999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>944.813000</v>
+        <v>944.81299999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.988000</v>
+        <v>-104.988</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1137.906520</v>
+        <v>1137.90652</v>
       </c>
       <c r="V22" s="1">
         <v>0.316085</v>
       </c>
       <c r="W22" s="1">
-        <v>951.463000</v>
+        <v>951.46299999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.322400</v>
+        <v>-89.322400000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>1148.144975</v>
+        <v>1148.1449749999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.318929</v>
+        <v>0.31892900000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.671000</v>
+        <v>958.67100000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.127300</v>
+        <v>-77.127300000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>1158.632359</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.321842</v>
+        <v>0.32184200000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.228000</v>
+        <v>963.22799999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.442300</v>
+        <v>-74.442300000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>1168.880191</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.324689</v>
+        <v>0.32468900000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.414000</v>
+        <v>970.41399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.528100</v>
+        <v>-78.528099999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>1179.858145</v>
+        <v>1179.8581449999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.327738</v>
+        <v>0.32773799999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.423000</v>
+        <v>978.423</v>
       </c>
       <c r="AR22" s="1">
-        <v>-89.472500</v>
+        <v>-89.472499999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>1190.633235</v>
@@ -5756,13 +6172,13 @@
         <v>0.330731</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.137000</v>
+        <v>988.13699999999994</v>
       </c>
       <c r="AW22" s="1">
-        <v>-106.424000</v>
+        <v>-106.42400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>1201.647892</v>
@@ -5771,13 +6187,13 @@
         <v>0.333791</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.168000</v>
+        <v>996.16800000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-121.455000</v>
+        <v>-121.455</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>1212.618933</v>
@@ -5786,58 +6202,58 @@
         <v>0.336839</v>
       </c>
       <c r="BF22" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-191.066000</v>
+        <v>-191.066</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>1223.290327</v>
+        <v>1223.2903269999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.339803</v>
+        <v>0.33980300000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1097.050000</v>
+        <v>1097.05</v>
       </c>
       <c r="BL22" s="1">
-        <v>-304.978000</v>
+        <v>-304.97800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>1233.865529</v>
+        <v>1233.8655289999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.342740</v>
+        <v>0.34273999999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1200.680000</v>
+        <v>1200.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-486.499000</v>
+        <v>-486.49900000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>1244.875226</v>
+        <v>1244.8752260000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.345799</v>
+        <v>0.34579900000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="BV22" s="1">
-        <v>-686.822000</v>
+        <v>-686.822</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>1255.769356</v>
@@ -5846,255 +6262,255 @@
         <v>0.348825</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1450.910000</v>
+        <v>1450.91</v>
       </c>
       <c r="CA22" s="1">
-        <v>-901.631000</v>
+        <v>-901.63099999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>1269.008571</v>
+        <v>1269.0085710000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.352502</v>
+        <v>0.35250199999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1802.750000</v>
+        <v>1802.75</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1410.840000</v>
+        <v>-1410.84</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>1096.273823</v>
       </c>
       <c r="B23" s="1">
-        <v>0.304521</v>
+        <v>0.30452099999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>895.262000</v>
+        <v>895.26199999999994</v>
       </c>
       <c r="D23" s="1">
-        <v>-203.725000</v>
+        <v>-203.72499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>1106.718081</v>
       </c>
       <c r="G23" s="1">
-        <v>0.307422</v>
+        <v>0.30742199999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>913.737000</v>
+        <v>913.73699999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-172.722000</v>
+        <v>-172.72200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1117.231285</v>
+        <v>1117.2312850000001</v>
       </c>
       <c r="L23" s="1">
-        <v>0.310342</v>
+        <v>0.31034200000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>937.776000</v>
+        <v>937.77599999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.884000</v>
+        <v>-121.884</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1127.798085</v>
+        <v>1127.7980849999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.313277</v>
+        <v>0.31327700000000003</v>
       </c>
       <c r="R23" s="1">
-        <v>944.810000</v>
+        <v>944.81</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.921000</v>
+        <v>-104.92100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>1138.557767</v>
       </c>
       <c r="V23" s="1">
-        <v>0.316266</v>
+        <v>0.31626599999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>951.447000</v>
+        <v>951.447</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.315300</v>
+        <v>-89.315299999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1148.799658</v>
+        <v>1148.7996579999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.319111</v>
+        <v>0.31911099999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.532000</v>
+        <v>958.53200000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.055300</v>
+        <v>-77.055300000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>1159.007820</v>
+        <v>1159.00782</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.321947</v>
+        <v>0.32194699999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.223000</v>
+        <v>963.22299999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.454200</v>
+        <v>-74.4542</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1169.263104</v>
+        <v>1169.2631040000001</v>
       </c>
       <c r="AK23" s="1">
         <v>0.324795</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.413000</v>
+        <v>970.41300000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.521300</v>
+        <v>-78.521299999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>1180.219728</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.327839</v>
+        <v>0.32783899999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.431000</v>
+        <v>978.43100000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-89.479400</v>
+        <v>-89.479399999999998</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>1190.996835</v>
+        <v>1190.9968349999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.330832</v>
+        <v>0.33083200000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.154000</v>
+        <v>988.154</v>
       </c>
       <c r="AW23" s="1">
-        <v>-106.421000</v>
+        <v>-106.42100000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>1202.006997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.333891</v>
+        <v>0.33389099999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.173000</v>
+        <v>996.173</v>
       </c>
       <c r="BB23" s="1">
-        <v>-121.467000</v>
+        <v>-121.467</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>1213.046948</v>
+        <v>1213.0469479999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.336957</v>
+        <v>0.33695700000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-191.061000</v>
+        <v>-191.06100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>1223.613223</v>
+        <v>1223.6132230000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>0.339893</v>
       </c>
       <c r="BK23" s="1">
-        <v>1097.060000</v>
+        <v>1097.06</v>
       </c>
       <c r="BL23" s="1">
-        <v>-304.985000</v>
+        <v>-304.98500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>1234.259353</v>
+        <v>1234.2593529999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.342850</v>
+        <v>0.34284999999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-486.483000</v>
+        <v>-486.483</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1245.313691</v>
+        <v>1245.3136910000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.345920</v>
+        <v>0.34592000000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1318.460000</v>
+        <v>1318.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-686.889000</v>
+        <v>-686.88900000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>1256.196445</v>
@@ -6103,801 +6519,802 @@
         <v>0.348943</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1451.020000</v>
+        <v>1451.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-901.619000</v>
+        <v>-901.61900000000003</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>1269.543258</v>
+        <v>1269.5432579999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.352651</v>
+        <v>0.35265099999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1801.630000</v>
+        <v>1801.63</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1411.760000</v>
+        <v>-1411.76</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>1096.619039</v>
+        <v>1096.6190389999999</v>
       </c>
       <c r="B24" s="1">
         <v>0.304616</v>
       </c>
       <c r="C24" s="1">
-        <v>895.261000</v>
+        <v>895.26099999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-203.741000</v>
+        <v>-203.74100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>1107.061809</v>
       </c>
       <c r="G24" s="1">
-        <v>0.307517</v>
+        <v>0.30751699999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>913.856000</v>
+        <v>913.85599999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-172.379000</v>
+        <v>-172.37899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>1117.578019</v>
       </c>
       <c r="L24" s="1">
-        <v>0.310438</v>
+        <v>0.31043799999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>937.892000</v>
+        <v>937.89200000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.842000</v>
+        <v>-121.842</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>1128.453804</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.313459</v>
+        <v>0.31345899999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>944.842000</v>
+        <v>944.84199999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.898000</v>
+        <v>-104.898</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1138.937206</v>
+        <v>1138.9372060000001</v>
       </c>
       <c r="V24" s="1">
-        <v>0.316371</v>
+        <v>0.31637100000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>951.438000</v>
+        <v>951.43799999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.327600</v>
+        <v>-89.327600000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>1149.190505</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.319220</v>
+        <v>0.31922</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.606000</v>
+        <v>958.60599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.174500</v>
+        <v>-77.174499999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>1159.350593</v>
+        <v>1159.3505929999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.322042</v>
+        <v>0.32204199999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.249000</v>
+        <v>963.24900000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.458300</v>
+        <v>-74.458299999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>1169.609310</v>
+        <v>1169.6093100000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.324891</v>
+        <v>0.32489099999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.440000</v>
+        <v>970.44</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.521500</v>
+        <v>-78.521500000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>1180.577376</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.327938</v>
+        <v>0.32793800000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.448000</v>
+        <v>978.44799999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-89.437800</v>
+        <v>-89.437799999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>1191.409473</v>
+        <v>1191.4094729999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.330947</v>
+        <v>0.33094699999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.128000</v>
+        <v>988.12800000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-106.425000</v>
+        <v>-106.425</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>1202.427616</v>
+        <v>1202.4276159999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.334008</v>
+        <v>0.33400800000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.172000</v>
+        <v>996.17200000000003</v>
       </c>
       <c r="BB24" s="1">
-        <v>-121.458000</v>
+        <v>-121.458</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>1213.343060</v>
+        <v>1213.3430599999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.337040</v>
+        <v>0.33704000000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1033.390000</v>
+        <v>1033.3900000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-191.063000</v>
+        <v>-191.06299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>1223.988694</v>
+        <v>1223.9886939999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.339997</v>
+        <v>0.33999699999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1097.060000</v>
+        <v>1097.06</v>
       </c>
       <c r="BL24" s="1">
-        <v>-304.986000</v>
+        <v>-304.98599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>1234.680952</v>
+        <v>1234.6809519999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.342967</v>
+        <v>0.34296700000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1200.680000</v>
+        <v>1200.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-486.518000</v>
+        <v>-486.51799999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>1245.740952</v>
+        <v>1245.7409520000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.346039</v>
+        <v>0.34603899999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1318.560000</v>
+        <v>1318.56</v>
       </c>
       <c r="BV24" s="1">
-        <v>-686.970000</v>
+        <v>-686.97</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>1256.612091</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.349059</v>
+        <v>0.34905900000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1450.970000</v>
+        <v>1450.97</v>
       </c>
       <c r="CA24" s="1">
-        <v>-901.628000</v>
+        <v>-901.62800000000004</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>1270.055395</v>
+        <v>1270.0553950000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.352793</v>
+        <v>0.35279300000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1802.600000</v>
+        <v>1802.6</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1412.580000</v>
+        <v>-1412.58</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>1096.961774</v>
+        <v>1096.9617740000001</v>
       </c>
       <c r="B25" s="1">
-        <v>0.304712</v>
+        <v>0.30471199999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>895.072000</v>
+        <v>895.072</v>
       </c>
       <c r="D25" s="1">
-        <v>-203.606000</v>
+        <v>-203.60599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1107.721024</v>
+        <v>1107.7210239999999</v>
       </c>
       <c r="G25" s="1">
-        <v>0.307700</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>913.876000</v>
+        <v>913.87599999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.340000</v>
+        <v>-172.34</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>1118.235187</v>
       </c>
       <c r="L25" s="1">
-        <v>0.310621</v>
+        <v>0.31062099999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>937.847000</v>
+        <v>937.84699999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.820000</v>
+        <v>-121.82</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>1128.845108</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.313568</v>
+        <v>0.31356800000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>944.851000</v>
+        <v>944.851</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.934000</v>
+        <v>-104.934</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>1139.281959</v>
+        <v>1139.2819589999999</v>
       </c>
       <c r="V25" s="1">
         <v>0.316467</v>
       </c>
       <c r="W25" s="1">
-        <v>951.451000</v>
+        <v>951.45100000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.368200</v>
+        <v>-89.368200000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>1149.539192</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.319316</v>
+        <v>0.31931599999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.549000</v>
+        <v>958.54899999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.096900</v>
+        <v>-77.096900000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1159.694779</v>
+        <v>1159.6947789999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.322137</v>
+        <v>0.32213700000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.240000</v>
+        <v>963.24</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.411600</v>
+        <v>-74.411600000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>1169.958493</v>
+        <v>1169.9584930000001</v>
       </c>
       <c r="AK25" s="1">
         <v>0.324988</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.445000</v>
+        <v>970.44500000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.483200</v>
+        <v>-78.483199999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>1180.990511</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.328053</v>
+        <v>0.32805299999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.456000</v>
+        <v>978.45600000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-89.462200</v>
+        <v>-89.462199999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>1191.726912</v>
+        <v>1191.7269120000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.331035</v>
+        <v>0.33103500000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.151000</v>
+        <v>988.15099999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-106.407000</v>
+        <v>-106.407</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>1202.724706</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.334090</v>
+        <v>0.33409</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.168000</v>
+        <v>996.16800000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-121.459000</v>
+        <v>-121.459</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>1213.703652</v>
+        <v>1213.7036519999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.337140</v>
+        <v>0.33714</v>
       </c>
       <c r="BF25" s="1">
-        <v>1033.410000</v>
+        <v>1033.4100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-191.064000</v>
+        <v>-191.06399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>1224.382053</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.340106</v>
+        <v>0.34010600000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1097.080000</v>
+        <v>1097.08</v>
       </c>
       <c r="BL25" s="1">
-        <v>-304.984000</v>
+        <v>-304.98399999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>1235.080232</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.343078</v>
+        <v>0.34307799999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1200.660000</v>
+        <v>1200.6600000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-486.488000</v>
+        <v>-486.488</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>1246.170315</v>
+        <v>1246.1703150000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.346158</v>
+        <v>0.34615800000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1318.540000</v>
+        <v>1318.54</v>
       </c>
       <c r="BV25" s="1">
-        <v>-687.001000</v>
+        <v>-687.00099999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>1257.066394</v>
+        <v>1257.0663939999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.349185</v>
+        <v>0.34918500000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1450.890000</v>
+        <v>1450.89</v>
       </c>
       <c r="CA25" s="1">
-        <v>-901.640000</v>
+        <v>-901.64</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>1270.575929</v>
+        <v>1270.5759290000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.352938</v>
+        <v>0.35293799999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>1803.200000</v>
+        <v>1803.2</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1411.820000</v>
+        <v>-1411.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>1097.600157</v>
+        <v>1097.6001570000001</v>
       </c>
       <c r="B26" s="1">
-        <v>0.304889</v>
+        <v>0.30488900000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>895.269000</v>
+        <v>895.26900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-203.787000</v>
+        <v>-203.78700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>1108.094975</v>
       </c>
       <c r="G26" s="1">
-        <v>0.307804</v>
+        <v>0.30780400000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>914.025000</v>
+        <v>914.02499999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-172.254000</v>
+        <v>-172.25399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>1118.614625</v>
+        <v>1118.6146249999999</v>
       </c>
       <c r="L26" s="1">
         <v>0.310726</v>
       </c>
       <c r="M26" s="1">
-        <v>937.858000</v>
+        <v>937.85799999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.860000</v>
+        <v>-121.86</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>1129.179909</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.313661</v>
+        <v>0.31366100000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>944.849000</v>
+        <v>944.84900000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.985000</v>
+        <v>-104.985</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>1139.627638</v>
+        <v>1139.6276379999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.316563</v>
+        <v>0.31656299999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>951.458000</v>
+        <v>951.45799999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.310400</v>
+        <v>-89.310400000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>1149.888872</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.319414</v>
+        <v>0.31941399999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.532000</v>
+        <v>958.53200000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.077700</v>
+        <v>-77.077699999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>1160.112411</v>
+        <v>1160.1124110000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.322253</v>
+        <v>0.32225300000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.241000</v>
+        <v>963.24099999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.388600</v>
+        <v>-74.388599999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>1170.655373</v>
+        <v>1170.6553730000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.325182</v>
+        <v>0.32518200000000003</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.437000</v>
+        <v>970.43700000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.504500</v>
+        <v>-78.504499999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>1181.297567</v>
+        <v>1181.2975670000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.328138</v>
+        <v>0.32813799999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.454000</v>
+        <v>978.45399999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-89.474100</v>
+        <v>-89.474100000000007</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>1192.094946</v>
+        <v>1192.0949459999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.331137</v>
+        <v>0.33113700000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.148000</v>
+        <v>988.14800000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-106.422000</v>
+        <v>-106.422</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>1203.096708</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.334194</v>
+        <v>0.33419399999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.157000</v>
+        <v>996.15700000000004</v>
       </c>
       <c r="BB26" s="1">
-        <v>-121.472000</v>
+        <v>-121.47199999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>1214.066227</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.337241</v>
+        <v>0.33724100000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1033.400000</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-191.066000</v>
+        <v>-191.066</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>1225.139414</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.340317</v>
+        <v>0.34031699999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1097.070000</v>
+        <v>1097.07</v>
       </c>
       <c r="BL26" s="1">
-        <v>-304.985000</v>
+        <v>-304.98500000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>1235.508556</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.343197</v>
+        <v>0.34319699999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1200.670000</v>
+        <v>1200.67</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-486.510000</v>
+        <v>-486.51</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>1246.581994</v>
+        <v>1246.5819939999999</v>
       </c>
       <c r="BT26" s="1">
         <v>0.346273</v>
       </c>
       <c r="BU26" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="BV26" s="1">
-        <v>-687.043000</v>
+        <v>-687.04300000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>1257.515274</v>
+        <v>1257.5152740000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.349310</v>
+        <v>0.34931000000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1451.110000</v>
+        <v>1451.11</v>
       </c>
       <c r="CA26" s="1">
-        <v>-901.676000</v>
+        <v>-901.67600000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>1271.405371</v>
+        <v>1271.4053710000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.353168</v>
+        <v>0.35316799999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1802.400000</v>
+        <v>1802.4</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1411.270000</v>
+        <v>-1411.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>